--- a/biology/Botanique/Jean_Muret/Jean_Muret.xlsx
+++ b/biology/Botanique/Jean_Muret/Jean_Muret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Muret, né Jean-Louis Muret à Lucerne le 21 mars 1799 et mort à Lausanne le 8 février 1877, est un juriste, un botaniste et une personnalité politique vaudoise.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils du juriste Jules Muret (1759-1847), originaire de Morges, et de Suzanne Baron, de La Tour-de-Peilz, Jean Muret a un frère, Charles-Louis, né en 1787, et une sœur, Jeanne-Marie, née en 1791. Son père siégeant au sénat de la République helvétique à Lucerne, il naît dans cette ville. La famille déménage à Lausanne, à la rue Saint-Laurent, lorsque Jean Muret a 3 ans. Il vivra toute sa vie dans cette rue, à quatre adresses différentes.
 Après des études primaires et secondaires, il suit les cours de droit de l'Académie. Il entre à la Société de Belles-Lettres en 1813 et la préside l'année suivante. Juriste, il complète ses études en Allemagne et à Paris. Devenu docteur de droit, il pratique au barreau pendant quelques années avant de devenir juge au tribunal de district, puis au tribunal d'appel (1830-1845).
@@ -546,10 +560,12 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lausanne possède un passage Jean-Muret entre la rue Neuve et la rue Chaucrau (décision municipale de 1893 sur proposition du syndic Samuel Cuénoud) ;
-Son nom est gravé depuis 1877 sur un rocher à l’entrée du Vallon de Nant, à côté de ceux de Juste Olivier et d'Eugène Rambert[1].</t>
+Son nom est gravé depuis 1877 sur un rocher à l’entrée du Vallon de Nant, à côté de ceux de Juste Olivier et d'Eugène Rambert.</t>
         </is>
       </c>
     </row>
